--- a/ISIC.xlsx
+++ b/ISIC.xlsx
@@ -8833,8 +8833,8 @@
   <sheetPr/>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
